--- a/Organization/Table_Of_Hours.xlsx
+++ b/Organization/Table_Of_Hours.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <r>
       <t xml:space="preserve">    </t>
@@ -86,32 +86,38 @@
     <t>Implement features not done yet, including: dynamite throw, working UI, state machines, etc.</t>
   </si>
   <si>
-    <t>Exctract all sprites in sprite_list from MAME. Find and take note of every visual element of</t>
-  </si>
-  <si>
-    <t>the level. This includes: scenario elements (including destroying sprites), enemies (all</t>
-  </si>
-  <si>
-    <t>sprites including deaths), NPCs(being hit sprites too), power ups, particles (enemies</t>
-  </si>
-  <si>
-    <t>shots), UI and backgrounds. Create Group all sprites in pngs (particles spritesheet,</t>
-  </si>
-  <si>
-    <t>enemies spritesheet...) working with the code section. Resize sprites if needed and</t>
-  </si>
-  <si>
-    <t>possible art problem fixes.</t>
-  </si>
-  <si>
     <t>TOTAL HOURS</t>
+  </si>
+  <si>
+    <t>NOTE: All those times are aproximations and the mejority are yet in progress so we've to add more hours</t>
+  </si>
+  <si>
+    <t>1 hour 30 min</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>5 hours</t>
+  </si>
+  <si>
+    <t>4 hours</t>
+  </si>
+  <si>
+    <t>15 hours</t>
+  </si>
+  <si>
+    <t>2 hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,6 +149,13 @@
       <b/>
       <sz val="16"/>
       <color theme="6" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -443,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -493,20 +506,29 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -842,19 +864,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="73.83203125" customWidth="1"/>
     <col min="4" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="3:7" ht="35" customHeight="1" thickBot="1">
+      <c r="C2" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="3" spans="3:7" ht="25" customHeight="1" thickBot="1">
       <c r="D3" s="13" t="s">
         <v>0</v>
@@ -873,135 +900,153 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
+      <c r="D4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="3:7" ht="71" customHeight="1" thickTop="1" thickBot="1">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="24"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="3:7" ht="71" customHeight="1" thickTop="1" thickBot="1">
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="24"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="3:7" ht="71" customHeight="1" thickTop="1" thickBot="1">
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="24"/>
+      <c r="D7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="3:7" ht="71" customHeight="1" thickTop="1" thickBot="1">
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="24"/>
+      <c r="D8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="3:7" ht="71" customHeight="1" thickTop="1" thickBot="1">
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="24"/>
+      <c r="D9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="3:7" ht="71" customHeight="1" thickTop="1" thickBot="1">
       <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="24"/>
+      <c r="D10" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="3:7" ht="71" customHeight="1" thickTop="1" thickBot="1">
       <c r="C11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="24"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="3:7" ht="71" customHeight="1" thickTop="1" thickBot="1">
       <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="3:7" ht="71" customHeight="1" thickTop="1" thickBot="1">
       <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="24"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="3:7" ht="71" customHeight="1" thickTop="1" thickBot="1">
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="24"/>
+      <c r="D14" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="3:7" ht="71" customHeight="1" thickTop="1" thickBot="1">
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="24"/>
+      <c r="D15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="3:7" ht="71" customHeight="1" thickTop="1" thickBot="1">
       <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="24"/>
+      <c r="D16" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="3:8" ht="71" customHeight="1" thickTop="1" thickBot="1">
       <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+      <c r="D17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="3:8" ht="32" customHeight="1" thickTop="1" thickBot="1">
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30" t="s">
-        <v>24</v>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="16" thickTop="1"/>
